--- a/进度.xlsx
+++ b/进度.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Games\Mega39_Chinese_Lyrics_Mod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45883FA-8E53-4C74-AC4E-8F19CF5C6107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C965FDF-05E7-42E7-82DD-609ECD0964D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1044" windowWidth="19008" windowHeight="10716" xr2:uid="{2DEE2980-E3FF-4BF7-948B-523630FD27D2}"/>
+    <workbookView xWindow="-1152" yWindow="2820" windowWidth="15372" windowHeight="9792" xr2:uid="{2DEE2980-E3FF-4BF7-948B-523630FD27D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="454">
   <si>
     <t>恋爱战争</t>
   </si>
@@ -41,9 +41,6 @@
     <t>恋は戦争</t>
   </si>
   <si>
-    <t>World is Mine</t>
-  </si>
-  <si>
     <t>ワールドイズマイン</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Far Away</t>
   </si>
   <si>
-    <t>Strobe Nights</t>
-  </si>
-  <si>
     <t>ストロボナイツ</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>初めての恋が終わる時</t>
   </si>
   <si>
-    <t>看向我这边 Baby</t>
-  </si>
-  <si>
     <t>こっち向いて Baby</t>
   </si>
   <si>
@@ -275,9 +266,6 @@
     <t>ダブルラリアット</t>
   </si>
   <si>
-    <t>Cantarella</t>
-  </si>
-  <si>
     <t>カンタレラ</t>
   </si>
   <si>
@@ -317,15 +305,9 @@
     <t>Just Be Friends</t>
   </si>
   <si>
-    <t>在金色圣夜的霜雪中枯朽而去（extend版)</t>
-  </si>
-  <si>
     <t>金の聖夜霜雪に朽ちて（extend版)</t>
   </si>
   <si>
-    <t>Electric Angel（extend版)</t>
-  </si>
-  <si>
     <t>えれくとりっく?えんじぇぅ（extend版)</t>
   </si>
   <si>
@@ -638,15 +620,9 @@
     <t>ありふれたせかいせいふく</t>
   </si>
   <si>
-    <t>再次再次沸腾</t>
-  </si>
-  <si>
     <t>アゲアゲアゲイン</t>
   </si>
   <si>
-    <t>你好，地球人</t>
-  </si>
-  <si>
     <t>はじめまして地球人さん</t>
   </si>
   <si>
@@ -1046,9 +1022,6 @@
     <t>神曲</t>
   </si>
   <si>
-    <t>喵喵喵喵喵喵喵!</t>
-  </si>
-  <si>
     <t>Nyanyanyanyanyanyanya!</t>
   </si>
   <si>
@@ -1142,9 +1115,6 @@
     <t>ネガポジ＊コンティニューズ</t>
   </si>
   <si>
-    <t>Black★Rock Shooter</t>
-  </si>
-  <si>
     <t>ブラック★ロックシューター</t>
   </si>
   <si>
@@ -1152,9 +1122,6 @@
   </si>
   <si>
     <t>夢の続き</t>
-  </si>
-  <si>
-    <t>千本樱 -F edition-</t>
   </si>
   <si>
     <t>千本桜 -F edition-</t>
@@ -1335,9 +1302,6 @@
   </si>
   <si>
     <t>Last Night, Good Night</t>
-  </si>
-  <si>
-    <t>Kipple Industry, Inc.</t>
   </si>
   <si>
     <r>
@@ -1367,14 +1331,6 @@
     </r>
   </si>
   <si>
-    <t>爱言叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初恋终结之时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F 2nd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1399,10 +1355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电子天使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采用（https://www.bilibili.com/video/BV11b411A7LB）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1422,15 +1374,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>世界第一的公主殿下</t>
+  </si>
+  <si>
+    <t>流光之夜</t>
+  </si>
+  <si>
+    <t>Last Night</t>
+  </si>
+  <si>
+    <t>电子天使</t>
+  </si>
+  <si>
+    <t>初恋终结之时</t>
+  </si>
+  <si>
+    <t>向我这边看 Baby</t>
+  </si>
+  <si>
+    <t>爱言叶</t>
+  </si>
+  <si>
     <t>最终之所</t>
+  </si>
+  <si>
+    <t>坎特雷拉</t>
+  </si>
+  <si>
+    <t>在金色圣夜的霜雪中枯朽而去（extend版）</t>
+  </si>
+  <si>
+    <t>电子天使（extend版）</t>
+  </si>
+  <si>
+    <t>猫耳备档</t>
+  </si>
+  <si>
+    <t>Kipple Industry</t>
+  </si>
+  <si>
+    <t>Ageage Again</t>
+  </si>
+  <si>
+    <t>初次见面，地球人</t>
+  </si>
+  <si>
+    <t>喵喵喵喵喵喵喵！</t>
+  </si>
+  <si>
+    <t>BLACK★ROCK SHOOTER</t>
+  </si>
+  <si>
+    <t>千本樱 -F edition-638</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>ネコミミアーカイブ</t>
+  </si>
+  <si>
+    <t>鸽子</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハト</t>
+  </si>
+  <si>
+    <t>Saturation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1453,6 +1474,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1489,7 +1516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1503,6 +1530,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1819,18 +1855,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900B627A-E523-48B5-8592-F59BF5B944CA}">
-  <dimension ref="A1:K254"/>
+  <dimension ref="A1:K259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="7" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
@@ -1838,29 +1874,29 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="K1"/>
     </row>
@@ -1868,2934 +1904,3772 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E2" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F2" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G2" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="H2" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
       <c r="D3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" t="s">
         <v>415</v>
       </c>
-      <c r="E3" t="s">
-        <v>426</v>
-      </c>
       <c r="G3" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="H3" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
       <c r="D4" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
       <c r="D6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E6" t="s">
         <v>415</v>
       </c>
-      <c r="E6" t="s">
-        <v>426</v>
-      </c>
       <c r="G6" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="H6" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H8" t="s">
+        <v>413</v>
+      </c>
+      <c r="I8" t="s">
         <v>416</v>
-      </c>
-      <c r="E8" t="s">
-        <v>423</v>
-      </c>
-      <c r="G8" t="s">
-        <v>423</v>
-      </c>
-      <c r="H8" t="s">
-        <v>424</v>
-      </c>
-      <c r="I8" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
+      </c>
+      <c r="B10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6">
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6">
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6">
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6">
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="6">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>405</v>
+      </c>
+      <c r="E17" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" t="s">
+        <v>422</v>
+      </c>
+      <c r="G17" t="s">
+        <v>412</v>
+      </c>
+      <c r="H17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>416</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C18" s="6">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C20" s="6">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>409</v>
+      </c>
+      <c r="E20" t="s">
+        <v>412</v>
+      </c>
+      <c r="F20" t="s">
+        <v>412</v>
+      </c>
+      <c r="G20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="6">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="6">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="6">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="6">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C27" s="6">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="6">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>409</v>
+      </c>
+      <c r="E28" t="s">
+        <v>413</v>
+      </c>
+      <c r="F28" t="s">
+        <v>412</v>
+      </c>
+      <c r="G28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="6">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>434</v>
+      </c>
+      <c r="C30" s="6">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>404</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="6">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="6">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C33" s="6">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" t="s">
+        <v>413</v>
+      </c>
+      <c r="F33" t="s">
+        <v>412</v>
+      </c>
+      <c r="G33" t="s">
+        <v>412</v>
+      </c>
+      <c r="H33" t="s">
+        <v>413</v>
+      </c>
+      <c r="I33" t="s">
         <v>423</v>
       </c>
-      <c r="F17" t="s">
+      <c r="J33" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
         <v>436</v>
       </c>
-      <c r="G17" t="s">
-        <v>423</v>
-      </c>
-      <c r="H17" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C34" s="6">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="6">
         <v>39</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="D35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="6">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="6">
         <v>41</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>420</v>
-      </c>
-      <c r="E26" t="s">
-        <v>424</v>
-      </c>
-      <c r="F26" t="s">
-        <v>423</v>
-      </c>
-      <c r="G26" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="D37" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="6">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="6">
         <v>43</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="D39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="6">
         <v>44</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D40" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="6">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="6">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="6">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B44" t="s">
+        <v>437</v>
+      </c>
+      <c r="C44" s="6">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>404</v>
+      </c>
+      <c r="E44" t="s">
         <v>415</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G44" t="s">
+        <v>412</v>
+      </c>
+      <c r="H44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="6">
         <v>49</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="D45" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>438</v>
+      </c>
+      <c r="C46" s="6">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>404</v>
+      </c>
+      <c r="E46" t="s">
+        <v>412</v>
+      </c>
+      <c r="F46" t="s">
+        <v>412</v>
+      </c>
+      <c r="G46" t="s">
+        <v>412</v>
+      </c>
+      <c r="H46" t="s">
+        <v>413</v>
+      </c>
+      <c r="I46" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="6">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>405</v>
+      </c>
+      <c r="E47" t="s">
+        <v>412</v>
+      </c>
+      <c r="F47" t="s">
+        <v>412</v>
+      </c>
+      <c r="G47" t="s">
+        <v>412</v>
+      </c>
+      <c r="H47" t="s">
         <v>415</v>
       </c>
-      <c r="E31" t="s">
-        <v>424</v>
-      </c>
-      <c r="F31" t="s">
-        <v>423</v>
-      </c>
-      <c r="G31" t="s">
-        <v>423</v>
-      </c>
-      <c r="H31" t="s">
-        <v>424</v>
-      </c>
-      <c r="I31" t="s">
-        <v>437</v>
-      </c>
-      <c r="J31" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="6">
         <v>52</v>
       </c>
-      <c r="D33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D42" t="s">
-        <v>415</v>
-      </c>
-      <c r="E42" t="s">
-        <v>426</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G42" t="s">
-        <v>423</v>
-      </c>
-      <c r="H42" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D44" t="s">
-        <v>415</v>
-      </c>
-      <c r="E44" t="s">
-        <v>423</v>
-      </c>
-      <c r="F44" t="s">
-        <v>423</v>
-      </c>
-      <c r="G44" t="s">
-        <v>423</v>
-      </c>
-      <c r="H44" t="s">
-        <v>424</v>
-      </c>
-      <c r="I44" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" t="s">
-        <v>416</v>
-      </c>
-      <c r="E45" t="s">
-        <v>423</v>
-      </c>
-      <c r="F45" t="s">
-        <v>423</v>
-      </c>
-      <c r="G45" t="s">
-        <v>423</v>
-      </c>
-      <c r="H45" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D48" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="6">
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="6">
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="6">
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="6">
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="6">
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>439</v>
+      </c>
+      <c r="C54" s="6">
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="6">
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="6">
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="6">
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="6">
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="6">
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="6">
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="6">
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="6">
+        <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="B63" t="s">
+        <v>440</v>
+      </c>
+      <c r="C63" s="6">
+        <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="B64" t="s">
+        <v>441</v>
+      </c>
+      <c r="C64" s="6">
+        <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="B65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="6">
+        <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="6">
+        <v>81</v>
       </c>
       <c r="D66" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
+      </c>
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="6">
+        <v>82</v>
       </c>
       <c r="D67" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="6">
+        <v>83</v>
       </c>
       <c r="D68" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="6">
+        <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="6">
+        <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="B71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="6">
+        <v>86</v>
       </c>
       <c r="D71" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="6">
+        <v>87</v>
       </c>
       <c r="D72" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
+      </c>
+      <c r="B73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="6">
+        <v>88</v>
       </c>
       <c r="D73" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="B74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="6">
+        <v>89</v>
       </c>
       <c r="D74" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="6">
+        <v>90</v>
       </c>
       <c r="D75" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="6">
+        <v>91</v>
       </c>
       <c r="D76" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="B77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="6">
+        <v>92</v>
       </c>
       <c r="D77" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="6">
+        <v>93</v>
       </c>
       <c r="D78" t="s">
-        <v>442</v>
-      </c>
-      <c r="E78" s="1"/>
+        <v>409</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="6">
+        <v>94</v>
       </c>
       <c r="D79" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="B80" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="6">
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>420</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
+      </c>
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="6">
+        <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="B82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="6">
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
+      </c>
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="6">
+        <v>101</v>
       </c>
       <c r="D83" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
+      </c>
+      <c r="B84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="6">
+        <v>102</v>
       </c>
       <c r="D84" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="B85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="6">
+        <v>103</v>
       </c>
       <c r="D85" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
+      </c>
+      <c r="B86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="6">
+        <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="B87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="6">
+        <v>201</v>
       </c>
       <c r="D87" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
+      </c>
+      <c r="B88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="6">
+        <v>202</v>
       </c>
       <c r="D88" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
+      </c>
+      <c r="B89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="6">
+        <v>203</v>
       </c>
       <c r="D89" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
+      </c>
+      <c r="B90" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="6">
+        <v>204</v>
       </c>
       <c r="D90" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
+      </c>
+      <c r="B91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="6">
+        <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="6">
+        <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>148</v>
+        <v>453</v>
+      </c>
+      <c r="B93" t="s">
+        <v>453</v>
+      </c>
+      <c r="C93" s="6">
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
+      </c>
+      <c r="B94" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="6">
+        <v>208</v>
       </c>
       <c r="D94" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
+      </c>
+      <c r="B95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="6">
+        <v>209</v>
       </c>
       <c r="D95" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
+      </c>
+      <c r="B96" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="6">
+        <v>210</v>
       </c>
       <c r="D96" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
+      </c>
+      <c r="B97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="6">
+        <v>211</v>
       </c>
       <c r="D97" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
+      </c>
+      <c r="B98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="6">
+        <v>212</v>
       </c>
       <c r="D98" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
+      </c>
+      <c r="B99" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" s="6">
+        <v>213</v>
       </c>
       <c r="D99" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
+      </c>
+      <c r="B100" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="6">
+        <v>214</v>
       </c>
       <c r="D100" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="B101" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" s="6">
+        <v>215</v>
       </c>
       <c r="D101" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
+      </c>
+      <c r="B102" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="6">
+        <v>216</v>
       </c>
       <c r="D102" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
+      </c>
+      <c r="B103" t="s">
+        <v>154</v>
+      </c>
+      <c r="C103" s="6">
+        <v>218</v>
       </c>
       <c r="D103" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
+      </c>
+      <c r="B104" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="6">
+        <v>219</v>
       </c>
       <c r="D104" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="6">
+        <v>220</v>
       </c>
       <c r="D105" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>170</v>
+        <v>450</v>
+      </c>
+      <c r="B106" t="s">
+        <v>442</v>
+      </c>
+      <c r="C106" s="6">
+        <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
+      </c>
+      <c r="B107" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" s="6">
+        <v>222</v>
       </c>
       <c r="D107" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
+      </c>
+      <c r="B108" t="s">
+        <v>161</v>
+      </c>
+      <c r="C108" s="6">
+        <v>223</v>
       </c>
       <c r="D108" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
+      </c>
+      <c r="B109" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109" s="6">
+        <v>224</v>
       </c>
       <c r="D109" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>430</v>
+        <v>165</v>
+      </c>
+      <c r="B110" t="s">
+        <v>164</v>
+      </c>
+      <c r="C110" s="6">
+        <v>225</v>
       </c>
       <c r="D110" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>39</v>
-      </c>
-      <c r="B111" s="1">
-        <v>39</v>
+      <c r="A111" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" t="s">
+        <v>166</v>
+      </c>
+      <c r="C111" s="6">
+        <v>226</v>
       </c>
       <c r="D111" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
+      </c>
+      <c r="B112" t="s">
+        <v>167</v>
+      </c>
+      <c r="C112" s="6">
+        <v>227</v>
       </c>
       <c r="D112" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
+      </c>
+      <c r="B113" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" s="6">
+        <v>228</v>
       </c>
       <c r="D113" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>180</v>
+        <v>419</v>
+      </c>
+      <c r="B114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C114" s="6">
+        <v>231</v>
       </c>
       <c r="D114" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>182</v>
+      <c r="A115" s="1">
+        <v>39</v>
+      </c>
+      <c r="B115">
+        <v>39</v>
+      </c>
+      <c r="C115" s="6">
+        <v>232</v>
       </c>
       <c r="D115" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
+      </c>
+      <c r="B116" t="s">
+        <v>170</v>
+      </c>
+      <c r="C116" s="6">
+        <v>233</v>
       </c>
       <c r="D116" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
+      </c>
+      <c r="B117" t="s">
+        <v>172</v>
+      </c>
+      <c r="C117" s="6">
+        <v>234</v>
       </c>
       <c r="D117" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
+      </c>
+      <c r="B118" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" s="6">
+        <v>235</v>
       </c>
       <c r="D118" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
+      </c>
+      <c r="B119" t="s">
+        <v>176</v>
+      </c>
+      <c r="C119" s="6">
+        <v>236</v>
       </c>
       <c r="D119" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
+      </c>
+      <c r="B120" t="s">
+        <v>177</v>
+      </c>
+      <c r="C120" s="6">
+        <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="B121" t="s">
+        <v>178</v>
+      </c>
+      <c r="C121" s="6">
+        <v>239</v>
       </c>
       <c r="D121" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
+      </c>
+      <c r="B122" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" s="6">
+        <v>240</v>
       </c>
       <c r="D122" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
+      </c>
+      <c r="B123" t="s">
+        <v>182</v>
+      </c>
+      <c r="C123" s="6">
+        <v>241</v>
       </c>
       <c r="D123" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
+      </c>
+      <c r="B124" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124" s="6">
+        <v>242</v>
       </c>
       <c r="D124" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
+      </c>
+      <c r="B125" t="s">
+        <v>185</v>
+      </c>
+      <c r="C125" s="6">
+        <v>243</v>
       </c>
       <c r="D125" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
+      </c>
+      <c r="B126" t="s">
+        <v>187</v>
+      </c>
+      <c r="C126" s="6">
+        <v>244</v>
       </c>
       <c r="D126" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
+      </c>
+      <c r="B127" t="s">
+        <v>189</v>
+      </c>
+      <c r="C127" s="6">
+        <v>246</v>
       </c>
       <c r="D127" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
+      </c>
+      <c r="B128" t="s">
+        <v>191</v>
+      </c>
+      <c r="C128" s="6">
+        <v>247</v>
       </c>
       <c r="D128" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
+      </c>
+      <c r="B129" t="s">
+        <v>193</v>
+      </c>
+      <c r="C129" s="6">
+        <v>248</v>
       </c>
       <c r="D129" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
+      </c>
+      <c r="B130" t="s">
+        <v>444</v>
+      </c>
+      <c r="C130" s="6">
+        <v>249</v>
       </c>
       <c r="D130" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
+      </c>
+      <c r="B131" t="s">
+        <v>445</v>
+      </c>
+      <c r="C131" s="6">
+        <v>250</v>
       </c>
       <c r="D131" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
+      </c>
+      <c r="B132" t="s">
+        <v>197</v>
+      </c>
+      <c r="C132" s="6">
+        <v>251</v>
       </c>
       <c r="D132" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
+      </c>
+      <c r="B133" t="s">
+        <v>198</v>
+      </c>
+      <c r="C133" s="6">
+        <v>253</v>
       </c>
       <c r="D133" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
+      </c>
+      <c r="B134" t="s">
+        <v>199</v>
+      </c>
+      <c r="C134" s="6">
+        <v>254</v>
       </c>
       <c r="D134" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
+      </c>
+      <c r="B135" t="s">
+        <v>201</v>
+      </c>
+      <c r="C135" s="6">
+        <v>255</v>
       </c>
       <c r="D135" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
+      </c>
+      <c r="B136" t="s">
+        <v>203</v>
+      </c>
+      <c r="C136" s="6">
+        <v>257</v>
       </c>
       <c r="D136" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>1925</v>
-      </c>
-      <c r="B137" s="1">
-        <v>1925</v>
+      <c r="A137" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B137" t="s">
+        <v>204</v>
+      </c>
+      <c r="C137" s="6">
+        <v>259</v>
       </c>
       <c r="D137" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
+      </c>
+      <c r="B138" t="s">
+        <v>206</v>
+      </c>
+      <c r="C138" s="6">
+        <v>260</v>
       </c>
       <c r="D138" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
+      </c>
+      <c r="B139" t="s">
+        <v>208</v>
+      </c>
+      <c r="C139" s="6">
+        <v>261</v>
       </c>
       <c r="D139" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
+      </c>
+      <c r="B140" t="s">
+        <v>210</v>
+      </c>
+      <c r="C140" s="6">
+        <v>262</v>
       </c>
       <c r="D140" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>226</v>
+      <c r="A141" s="1">
+        <v>1925</v>
+      </c>
+      <c r="B141">
+        <v>1925</v>
+      </c>
+      <c r="C141" s="6">
+        <v>263</v>
       </c>
       <c r="D141" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
+      </c>
+      <c r="B142" t="s">
+        <v>212</v>
+      </c>
+      <c r="C142" s="6">
+        <v>265</v>
       </c>
       <c r="D142" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
+      </c>
+      <c r="B143" t="s">
+        <v>214</v>
+      </c>
+      <c r="C143" s="6">
+        <v>266</v>
       </c>
       <c r="D143" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
+      </c>
+      <c r="B144" t="s">
+        <v>216</v>
+      </c>
+      <c r="C144" s="6">
+        <v>267</v>
       </c>
       <c r="D144" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
+      </c>
+      <c r="B145" t="s">
+        <v>218</v>
+      </c>
+      <c r="C145" s="6">
+        <v>268</v>
       </c>
       <c r="D145" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
+      </c>
+      <c r="B146" t="s">
+        <v>219</v>
+      </c>
+      <c r="C146" s="6">
+        <v>269</v>
       </c>
       <c r="D146" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
+      </c>
+      <c r="B147" t="s">
+        <v>221</v>
+      </c>
+      <c r="C147" s="6">
+        <v>270</v>
       </c>
       <c r="D147" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
+      </c>
+      <c r="B148" t="s">
+        <v>223</v>
+      </c>
+      <c r="C148" s="6">
+        <v>271</v>
       </c>
       <c r="D148" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
+      </c>
+      <c r="B149" t="s">
+        <v>225</v>
+      </c>
+      <c r="C149" s="6">
+        <v>272</v>
       </c>
       <c r="D149" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
+      </c>
+      <c r="B150" t="s">
+        <v>227</v>
+      </c>
+      <c r="C150" s="6">
+        <v>273</v>
       </c>
       <c r="D150" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="B151" t="s">
+        <v>229</v>
+      </c>
+      <c r="C151" s="6">
+        <v>274</v>
       </c>
       <c r="D151" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
+      </c>
+      <c r="B152" t="s">
+        <v>231</v>
+      </c>
+      <c r="C152" s="6">
+        <v>275</v>
       </c>
       <c r="D152" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
+      </c>
+      <c r="B153" t="s">
+        <v>233</v>
+      </c>
+      <c r="C153" s="6">
+        <v>276</v>
       </c>
       <c r="D153" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
+      </c>
+      <c r="B154" t="s">
+        <v>235</v>
+      </c>
+      <c r="C154" s="6">
+        <v>277</v>
       </c>
       <c r="D154" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
+      </c>
+      <c r="B155" t="s">
+        <v>237</v>
+      </c>
+      <c r="C155" s="6">
+        <v>278</v>
       </c>
       <c r="D155" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>253</v>
+        <v>239</v>
+      </c>
+      <c r="B156" t="s">
+        <v>239</v>
+      </c>
+      <c r="C156" s="6">
+        <v>279</v>
       </c>
       <c r="D156" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
+      </c>
+      <c r="B157" t="s">
+        <v>240</v>
+      </c>
+      <c r="C157" s="6">
+        <v>280</v>
       </c>
       <c r="D157" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
+      </c>
+      <c r="B158" t="s">
+        <v>242</v>
+      </c>
+      <c r="C158" s="6">
+        <v>281</v>
       </c>
       <c r="D158" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
+      </c>
+      <c r="B159" t="s">
+        <v>244</v>
+      </c>
+      <c r="C159" s="6">
+        <v>401</v>
       </c>
       <c r="D159" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
+      </c>
+      <c r="B160" t="s">
+        <v>245</v>
+      </c>
+      <c r="C160" s="6">
+        <v>402</v>
       </c>
       <c r="D160" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>261</v>
+        <v>247</v>
+      </c>
+      <c r="B161" t="s">
+        <v>246</v>
+      </c>
+      <c r="C161" s="6">
+        <v>403</v>
       </c>
       <c r="D161" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>262</v>
+        <v>248</v>
+      </c>
+      <c r="B162" t="s">
+        <v>248</v>
+      </c>
+      <c r="C162" s="6">
+        <v>404</v>
       </c>
       <c r="D162" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
+      </c>
+      <c r="B163" t="s">
+        <v>249</v>
+      </c>
+      <c r="C163" s="6">
+        <v>405</v>
       </c>
       <c r="D163" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
+      </c>
+      <c r="B164" t="s">
+        <v>251</v>
+      </c>
+      <c r="C164" s="6">
+        <v>407</v>
       </c>
       <c r="D164" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
+      </c>
+      <c r="B165" t="s">
+        <v>253</v>
+      </c>
+      <c r="C165" s="6">
+        <v>408</v>
       </c>
       <c r="D165" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>269</v>
+        <v>255</v>
+      </c>
+      <c r="B166" t="s">
+        <v>254</v>
+      </c>
+      <c r="C166" s="6">
+        <v>409</v>
       </c>
       <c r="D166" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
+      </c>
+      <c r="B167" t="s">
+        <v>256</v>
+      </c>
+      <c r="C167" s="6">
+        <v>410</v>
       </c>
       <c r="D167" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
+      </c>
+      <c r="B168" t="s">
+        <v>258</v>
+      </c>
+      <c r="C168" s="6">
+        <v>411</v>
       </c>
       <c r="D168" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
+      </c>
+      <c r="B169" t="s">
+        <v>259</v>
+      </c>
+      <c r="C169" s="6">
+        <v>412</v>
       </c>
       <c r="D169" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
+      </c>
+      <c r="B170" t="s">
+        <v>261</v>
+      </c>
+      <c r="C170" s="6">
+        <v>413</v>
       </c>
       <c r="D170" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
+      </c>
+      <c r="B171" t="s">
+        <v>263</v>
+      </c>
+      <c r="C171" s="6">
+        <v>414</v>
       </c>
       <c r="D171" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
+      </c>
+      <c r="B172" t="s">
+        <v>264</v>
+      </c>
+      <c r="C172" s="6">
+        <v>415</v>
       </c>
       <c r="D172" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
+      </c>
+      <c r="B173" t="s">
+        <v>266</v>
+      </c>
+      <c r="C173" s="6">
+        <v>416</v>
       </c>
       <c r="D173" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
+      </c>
+      <c r="B174" t="s">
+        <v>267</v>
+      </c>
+      <c r="C174" s="6">
+        <v>417</v>
       </c>
       <c r="D174" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>284</v>
+        <v>270</v>
+      </c>
+      <c r="B175" t="s">
+        <v>269</v>
+      </c>
+      <c r="C175" s="6">
+        <v>418</v>
       </c>
       <c r="D175" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
+      </c>
+      <c r="B176" t="s">
+        <v>271</v>
+      </c>
+      <c r="C176" s="6">
+        <v>419</v>
       </c>
       <c r="D176" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
+      </c>
+      <c r="B177" t="s">
+        <v>273</v>
+      </c>
+      <c r="C177" s="6">
+        <v>420</v>
       </c>
       <c r="D177" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
+      </c>
+      <c r="B178" t="s">
+        <v>274</v>
+      </c>
+      <c r="C178" s="6">
+        <v>421</v>
       </c>
       <c r="D178" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
+      </c>
+      <c r="B179" t="s">
+        <v>276</v>
+      </c>
+      <c r="C179" s="6">
+        <v>422</v>
       </c>
       <c r="D179" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
+      </c>
+      <c r="B180" t="s">
+        <v>278</v>
+      </c>
+      <c r="C180" s="6">
+        <v>423</v>
       </c>
       <c r="D180" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>295</v>
+        <v>281</v>
+      </c>
+      <c r="B181" t="s">
+        <v>280</v>
+      </c>
+      <c r="C181" s="6">
+        <v>424</v>
       </c>
       <c r="D181" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
+      </c>
+      <c r="B182" t="s">
+        <v>282</v>
+      </c>
+      <c r="C182" s="6">
+        <v>425</v>
       </c>
       <c r="D182" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>298</v>
+        <v>284</v>
+      </c>
+      <c r="B183" t="s">
+        <v>284</v>
+      </c>
+      <c r="C183" s="6">
+        <v>426</v>
       </c>
       <c r="D183" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
+      </c>
+      <c r="B184" t="s">
+        <v>285</v>
+      </c>
+      <c r="C184" s="6">
+        <v>427</v>
       </c>
       <c r="D184" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
+      </c>
+      <c r="B185" t="s">
+        <v>287</v>
+      </c>
+      <c r="C185" s="6">
+        <v>428</v>
       </c>
       <c r="D185" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
+      </c>
+      <c r="B186" t="s">
+        <v>289</v>
+      </c>
+      <c r="C186" s="6">
+        <v>429</v>
       </c>
       <c r="D186" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>304</v>
+        <v>290</v>
+      </c>
+      <c r="B187" t="s">
+        <v>290</v>
+      </c>
+      <c r="C187" s="6">
+        <v>430</v>
       </c>
       <c r="D187" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
+      </c>
+      <c r="B188" t="s">
+        <v>291</v>
+      </c>
+      <c r="C188" s="6">
+        <v>431</v>
       </c>
       <c r="D188" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
+      </c>
+      <c r="B189" t="s">
+        <v>292</v>
+      </c>
+      <c r="C189" s="6">
+        <v>432</v>
       </c>
       <c r="D189" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>310</v>
+        <v>295</v>
+      </c>
+      <c r="B190" t="s">
+        <v>294</v>
+      </c>
+      <c r="C190" s="6">
+        <v>433</v>
       </c>
       <c r="D190" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
+      </c>
+      <c r="B191" t="s">
+        <v>296</v>
+      </c>
+      <c r="C191" s="6">
+        <v>434</v>
       </c>
       <c r="D191" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
+      </c>
+      <c r="B192" t="s">
+        <v>298</v>
+      </c>
+      <c r="C192" s="6">
+        <v>435</v>
       </c>
       <c r="D192" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
+      </c>
+      <c r="B193" t="s">
+        <v>300</v>
+      </c>
+      <c r="C193" s="6">
+        <v>436</v>
       </c>
       <c r="D193" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
+      </c>
+      <c r="B194" t="s">
+        <v>302</v>
+      </c>
+      <c r="C194" s="6">
+        <v>437</v>
       </c>
       <c r="D194" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
+      </c>
+      <c r="B195" t="s">
+        <v>304</v>
+      </c>
+      <c r="C195" s="6">
+        <v>438</v>
       </c>
       <c r="D195" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>321</v>
+        <v>307</v>
+      </c>
+      <c r="B196" t="s">
+        <v>306</v>
+      </c>
+      <c r="C196" s="6">
+        <v>439</v>
       </c>
       <c r="D196" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>323</v>
+        <v>309</v>
+      </c>
+      <c r="B197" t="s">
+        <v>308</v>
+      </c>
+      <c r="C197" s="6">
+        <v>440</v>
       </c>
       <c r="D197" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>325</v>
+        <v>310</v>
+      </c>
+      <c r="B198" t="s">
+        <v>310</v>
+      </c>
+      <c r="C198" s="6">
+        <v>441</v>
       </c>
       <c r="D198" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>327</v>
+        <v>312</v>
+      </c>
+      <c r="B199" t="s">
+        <v>311</v>
+      </c>
+      <c r="C199" s="6">
+        <v>442</v>
       </c>
       <c r="D199" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
+      </c>
+      <c r="B200" t="s">
+        <v>313</v>
+      </c>
+      <c r="C200" s="6">
+        <v>443</v>
       </c>
       <c r="D200" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
+      </c>
+      <c r="B201" t="s">
+        <v>315</v>
+      </c>
+      <c r="C201" s="6">
+        <v>600</v>
       </c>
       <c r="D201" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
+      </c>
+      <c r="B202" t="s">
+        <v>317</v>
+      </c>
+      <c r="C202" s="6">
+        <v>601</v>
       </c>
       <c r="D202" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>333</v>
+        <v>319</v>
+      </c>
+      <c r="B203" t="s">
+        <v>319</v>
+      </c>
+      <c r="C203" s="6">
+        <v>602</v>
       </c>
       <c r="D203" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>334</v>
+        <v>320</v>
+      </c>
+      <c r="B204" t="s">
+        <v>320</v>
+      </c>
+      <c r="C204" s="6">
+        <v>603</v>
       </c>
       <c r="D204" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>336</v>
+        <v>322</v>
+      </c>
+      <c r="B205" t="s">
+        <v>321</v>
+      </c>
+      <c r="C205" s="6">
+        <v>604</v>
       </c>
       <c r="D205" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
+      </c>
+      <c r="B206" t="s">
+        <v>323</v>
+      </c>
+      <c r="C206" s="6">
+        <v>605</v>
       </c>
       <c r="D206" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>339</v>
+        <v>325</v>
+      </c>
+      <c r="B207" t="s">
+        <v>325</v>
+      </c>
+      <c r="C207" s="6">
+        <v>607</v>
       </c>
       <c r="D207" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
+      </c>
+      <c r="B208" t="s">
+        <v>326</v>
+      </c>
+      <c r="C208" s="6">
+        <v>608</v>
       </c>
       <c r="D208" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
+      </c>
+      <c r="B209" t="s">
+        <v>328</v>
+      </c>
+      <c r="C209" s="6">
+        <v>609</v>
       </c>
       <c r="D209" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>344</v>
+        <v>329</v>
+      </c>
+      <c r="B210" t="s">
+        <v>446</v>
+      </c>
+      <c r="C210" s="6">
+        <v>610</v>
       </c>
       <c r="D210" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
+      </c>
+      <c r="B211" t="s">
+        <v>330</v>
+      </c>
+      <c r="C211" s="6">
+        <v>611</v>
       </c>
       <c r="D211" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>348</v>
+        <v>332</v>
+      </c>
+      <c r="B212" t="s">
+        <v>331</v>
+      </c>
+      <c r="C212" s="6">
+        <v>612</v>
       </c>
       <c r="D212" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>350</v>
+        <v>334</v>
+      </c>
+      <c r="B213" t="s">
+        <v>333</v>
+      </c>
+      <c r="C213" s="6">
+        <v>613</v>
       </c>
       <c r="D213" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>352</v>
+        <v>336</v>
+      </c>
+      <c r="B214" t="s">
+        <v>335</v>
+      </c>
+      <c r="C214" s="6">
+        <v>614</v>
       </c>
       <c r="D214" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>354</v>
+        <v>338</v>
+      </c>
+      <c r="B215" t="s">
+        <v>337</v>
+      </c>
+      <c r="C215" s="6">
+        <v>615</v>
       </c>
       <c r="D215" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>356</v>
+        <v>340</v>
+      </c>
+      <c r="B216" t="s">
+        <v>339</v>
+      </c>
+      <c r="C216" s="6">
+        <v>616</v>
       </c>
       <c r="D216" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
+      </c>
+      <c r="B217" t="s">
+        <v>341</v>
+      </c>
+      <c r="C217" s="6">
+        <v>617</v>
       </c>
       <c r="D217" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>359</v>
+        <v>344</v>
+      </c>
+      <c r="B218" t="s">
+        <v>343</v>
+      </c>
+      <c r="C218" s="6">
+        <v>618</v>
       </c>
       <c r="D218" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
+      </c>
+      <c r="B219" t="s">
+        <v>345</v>
+      </c>
+      <c r="C219" s="6">
+        <v>619</v>
       </c>
       <c r="D219" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
+      </c>
+      <c r="B220" t="s">
+        <v>347</v>
+      </c>
+      <c r="C220" s="6">
+        <v>620</v>
       </c>
       <c r="D220" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>363</v>
+        <v>349</v>
+      </c>
+      <c r="B221" t="s">
+        <v>349</v>
+      </c>
+      <c r="C221" s="6">
+        <v>621</v>
       </c>
       <c r="D221" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>364</v>
+        <v>350</v>
+      </c>
+      <c r="B222" t="s">
+        <v>350</v>
+      </c>
+      <c r="C222" s="6">
+        <v>622</v>
       </c>
       <c r="D222" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>365</v>
+        <v>351</v>
+      </c>
+      <c r="B223" t="s">
+        <v>351</v>
+      </c>
+      <c r="C223" s="6">
+        <v>623</v>
       </c>
       <c r="D223" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>366</v>
+        <v>353</v>
+      </c>
+      <c r="B224" t="s">
+        <v>352</v>
+      </c>
+      <c r="C224" s="6">
+        <v>624</v>
       </c>
       <c r="D224" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>367</v>
+        <v>354</v>
+      </c>
+      <c r="B225" t="s">
+        <v>354</v>
+      </c>
+      <c r="C225" s="6">
+        <v>625</v>
       </c>
       <c r="D225" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>369</v>
+        <v>355</v>
+      </c>
+      <c r="B226" t="s">
+        <v>355</v>
+      </c>
+      <c r="C226" s="6">
+        <v>626</v>
       </c>
       <c r="D226" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>371</v>
+        <v>356</v>
+      </c>
+      <c r="B227" t="s">
+        <v>356</v>
+      </c>
+      <c r="C227" s="6">
+        <v>627</v>
       </c>
       <c r="D227" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>373</v>
+        <v>357</v>
+      </c>
+      <c r="B228" t="s">
+        <v>357</v>
+      </c>
+      <c r="C228" s="6">
+        <v>628</v>
       </c>
       <c r="D228" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>375</v>
+        <v>359</v>
+      </c>
+      <c r="B229" t="s">
+        <v>358</v>
+      </c>
+      <c r="C229" s="6">
+        <v>629</v>
       </c>
       <c r="D229" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>376</v>
+        <v>360</v>
+      </c>
+      <c r="B230" t="s">
+        <v>447</v>
+      </c>
+      <c r="C230" s="6">
+        <v>630</v>
       </c>
       <c r="D230" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>378</v>
+        <v>362</v>
+      </c>
+      <c r="B231" t="s">
+        <v>361</v>
+      </c>
+      <c r="C231" s="6">
+        <v>631</v>
       </c>
       <c r="D231" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>380</v>
+        <v>363</v>
+      </c>
+      <c r="B232" t="s">
+        <v>448</v>
+      </c>
+      <c r="C232" s="6">
+        <v>637</v>
       </c>
       <c r="D232" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>382</v>
+        <v>364</v>
+      </c>
+      <c r="C233" s="6">
+        <v>638</v>
       </c>
       <c r="D233" t="s">
-        <v>415</v>
-      </c>
-      <c r="E233" t="s">
-        <v>424</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G233" t="s">
-        <v>424</v>
-      </c>
-      <c r="H233" t="s">
-        <v>424</v>
-      </c>
-      <c r="I233" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>383</v>
+        <v>366</v>
+      </c>
+      <c r="B234" t="s">
+        <v>365</v>
+      </c>
+      <c r="C234" s="6">
+        <v>639</v>
       </c>
       <c r="D234" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>384</v>
+        <v>368</v>
+      </c>
+      <c r="B235" t="s">
+        <v>367</v>
+      </c>
+      <c r="C235" s="6">
+        <v>640</v>
       </c>
       <c r="D235" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
+      </c>
+      <c r="B236" t="s">
+        <v>369</v>
+      </c>
+      <c r="C236" s="6">
+        <v>641</v>
       </c>
       <c r="D236" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>388</v>
+        <v>371</v>
+      </c>
+      <c r="B237" t="s">
+        <v>371</v>
+      </c>
+      <c r="C237" s="6">
+        <v>642</v>
       </c>
       <c r="D237" t="s">
-        <v>420</v>
+        <v>404</v>
+      </c>
+      <c r="E237" t="s">
+        <v>413</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G237" t="s">
+        <v>413</v>
+      </c>
+      <c r="H237" t="s">
+        <v>413</v>
+      </c>
+      <c r="I237" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>390</v>
+        <v>372</v>
+      </c>
+      <c r="B238" t="s">
+        <v>372</v>
+      </c>
+      <c r="C238" s="6">
+        <v>700</v>
       </c>
       <c r="D238" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>392</v>
+        <v>372</v>
+      </c>
+      <c r="B239" t="s">
+        <v>372</v>
+      </c>
+      <c r="C239" s="6">
+        <v>701</v>
       </c>
       <c r="D239" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>394</v>
+        <v>374</v>
+      </c>
+      <c r="B240" t="s">
+        <v>373</v>
+      </c>
+      <c r="C240" s="6">
+        <v>710</v>
       </c>
       <c r="D240" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>396</v>
+        <v>376</v>
+      </c>
+      <c r="B241" t="s">
+        <v>375</v>
+      </c>
+      <c r="C241" s="6">
+        <v>722</v>
       </c>
       <c r="D241" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>398</v>
+        <v>378</v>
+      </c>
+      <c r="B242" t="s">
+        <v>377</v>
+      </c>
+      <c r="C242" s="6">
+        <v>723</v>
       </c>
       <c r="D242" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>399</v>
+        <v>380</v>
+      </c>
+      <c r="B243" t="s">
+        <v>379</v>
+      </c>
+      <c r="C243" s="6">
+        <v>724</v>
       </c>
       <c r="D243" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>428</v>
+        <v>382</v>
+      </c>
+      <c r="B244" t="s">
+        <v>381</v>
+      </c>
+      <c r="C244" s="6">
+        <v>725</v>
       </c>
       <c r="D244" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>401</v>
+        <v>384</v>
+      </c>
+      <c r="B245" t="s">
+        <v>383</v>
+      </c>
+      <c r="C245" s="6">
+        <v>726</v>
       </c>
       <c r="D245" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>402</v>
+        <v>386</v>
+      </c>
+      <c r="B246" t="s">
+        <v>385</v>
+      </c>
+      <c r="C246" s="6">
+        <v>727</v>
       </c>
       <c r="D246" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>404</v>
+        <v>387</v>
+      </c>
+      <c r="B247" t="s">
+        <v>387</v>
+      </c>
+      <c r="C247" s="6">
+        <v>728</v>
       </c>
       <c r="D247" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>406</v>
+        <v>389</v>
+      </c>
+      <c r="B248" t="s">
+        <v>388</v>
+      </c>
+      <c r="C248" s="6">
+        <v>729</v>
       </c>
       <c r="D248" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>408</v>
+        <v>417</v>
+      </c>
+      <c r="B249" t="s">
+        <v>449</v>
+      </c>
+      <c r="C249" s="6">
+        <v>730</v>
       </c>
       <c r="D249" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>410</v>
+        <v>390</v>
+      </c>
+      <c r="B250" t="s">
+        <v>390</v>
+      </c>
+      <c r="C250" s="6">
+        <v>731</v>
       </c>
       <c r="D250" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>411</v>
+        <v>392</v>
+      </c>
+      <c r="B251" t="s">
+        <v>391</v>
+      </c>
+      <c r="C251" s="6">
+        <v>732</v>
       </c>
       <c r="D251" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>412</v>
+        <v>394</v>
+      </c>
+      <c r="B252" t="s">
+        <v>393</v>
+      </c>
+      <c r="C252" s="6">
+        <v>733</v>
       </c>
       <c r="D252" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>413</v>
+        <v>396</v>
+      </c>
+      <c r="B253" t="s">
+        <v>395</v>
+      </c>
+      <c r="C253" s="6">
+        <v>734</v>
       </c>
       <c r="D253" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>414</v>
+        <v>398</v>
+      </c>
+      <c r="B254" t="s">
+        <v>397</v>
+      </c>
+      <c r="C254" s="6">
+        <v>736</v>
       </c>
       <c r="D254" t="s">
-        <v>420</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B255" t="s">
+        <v>399</v>
+      </c>
+      <c r="C255" s="6">
+        <v>737</v>
+      </c>
+      <c r="D255" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B256" t="s">
+        <v>400</v>
+      </c>
+      <c r="C256" s="6">
+        <v>738</v>
+      </c>
+      <c r="D256" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B257" t="s">
+        <v>401</v>
+      </c>
+      <c r="C257" s="6">
+        <v>739</v>
+      </c>
+      <c r="D257" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B258" t="s">
+        <v>402</v>
+      </c>
+      <c r="C258" s="6">
+        <v>740</v>
+      </c>
+      <c r="D258" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B259" t="s">
+        <v>403</v>
+      </c>
+      <c r="C259" s="6">
+        <v>832</v>
+      </c>
+      <c r="D259" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
